--- a/Util/excel2json-master/Item_Data.xlsx
+++ b/Util/excel2json-master/Item_Data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83243323-C948-49A6-A3A2-36B11214B03B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C10D8B-E145-4C17-8770-D8658D9F9743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26550" yWindow="1725" windowWidth="23535" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,60 +28,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Description</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Gold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나뭇가지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>멋있는 목검</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쇠꼬챙이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>식칼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>강철검</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>장착용 나뭇가지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장착용 멋있는 목검</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장착용 쇠꼬챙이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장착용 식칼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>장착용 강철검</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -92,15 +50,85 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#ItemInfos[{}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>플</t>
+    <t>#ItemDatas[{}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Armor</t>
+  </si>
+  <si>
+    <t>Damage</t>
+  </si>
+  <si>
+    <t>낡은 철검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제련검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양손검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장착용 목검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장착용 낡은 철검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장착용 제련검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장착용 양손검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가죽갑옷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>편갑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중갑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판금갑옷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>활동복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장착용 활동복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장착용 가죽갑옷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장착용 편갑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장착용 중갑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장착용 판금갑옷</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -172,9 +200,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -212,9 +240,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -247,9 +275,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -282,9 +327,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -458,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="38.25" x14ac:dyDescent="0.7"/>
@@ -476,200 +538,194 @@
     <col min="8" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.7">
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.7">
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.7">
       <c r="B4" s="1">
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="E4" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.7">
       <c r="B5" s="1">
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="E5" s="1">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.7">
       <c r="B6" s="1">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1">
+        <v>50</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.7">
+      <c r="B7" s="1">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.7">
+      <c r="B8" s="1">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>20</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.7">
+      <c r="B9" s="1">
         <v>8</v>
       </c>
-      <c r="D6" s="1">
-        <v>90</v>
-      </c>
-      <c r="E6" s="1">
-        <v>300</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="B7" s="1">
-        <v>1001</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
         <v>30</v>
       </c>
-      <c r="E7" s="1">
-        <v>100</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="F9" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.7">
+      <c r="B10" s="1">
         <v>9</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="B8" s="1">
-        <v>1002</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="C10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
         <v>40</v>
       </c>
-      <c r="E8" s="1">
-        <v>150</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="F10" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.7">
+      <c r="B11" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="B9" s="1">
-        <v>1003</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="1">
+      <c r="C11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
         <v>50</v>
       </c>
-      <c r="E9" s="1">
-        <v>200</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="B10" s="1">
-        <v>1004</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="1">
-        <v>60</v>
-      </c>
-      <c r="E10" s="1">
-        <v>250</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="B11" s="1">
-        <v>1005</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="1">
-        <v>70</v>
-      </c>
-      <c r="E11" s="1">
-        <v>300</v>
-      </c>
       <c r="F11" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
